--- a/igs/helseapi/CurrentBuild/StructureDefinition-no-helseapi-DocumentReference.xlsx
+++ b/igs/helseapi/CurrentBuild/StructureDefinition-no-helseapi-DocumentReference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T17:47:33+00:00</t>
+    <t>2024-02-09T18:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/helseapi/CurrentBuild/StructureDefinition-no-helseapi-DocumentReference.xlsx
+++ b/igs/helseapi/CurrentBuild/StructureDefinition-no-helseapi-DocumentReference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T18:08:56+00:00</t>
+    <t>2024-02-09T18:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
